--- a/0909_요약및키워드/통계와연관분석.xlsx
+++ b/0909_요약및키워드/통계와연관분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YOLO\0909_요약및키워드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B5584-BE7E-4AEA-ABA9-29EF76F2D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533A4FB-F3A1-4F58-A281-F159ED0CC92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2F141D0-23C7-4AE5-87B1-116F8BEFD9C0}"/>
   </bookViews>
@@ -512,12 +512,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,35 +640,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,28 +690,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -692,10 +720,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -704,7 +732,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5132,13 +5166,14 @@
   <dimension ref="C3:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:22">
@@ -5358,7 +5393,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="9:22">
+    <row r="20" spans="9:22" ht="17.25" thickBot="1"/>
+    <row r="21" spans="9:22" ht="17.25" thickBot="1">
       <c r="I21" s="23"/>
       <c r="K21" s="22" t="s">
         <v>66</v>
@@ -5369,7 +5405,7 @@
       <c r="P21" t="s">
         <v>68</v>
       </c>
-      <c r="V21" s="24" t="s">
+      <c r="V21" s="26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5380,7 +5416,7 @@
       <c r="T22" t="s">
         <v>52</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="25">
         <v>0</v>
       </c>
     </row>
